--- a/datasets/open_source_ai_glossary.xlsx
+++ b/datasets/open_source_ai_glossary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcuomo/Documents/Books/Open Source AI Book/chapters/Chapter 12 - Alumni of Open/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcuomo/Documents/Books/Open Source AI Book/chapters/Chapter 12 - Commit to Contribute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6BCEE7AE-4278-6547-820C-9ECE14802ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F179D80-A70B-C54A-915C-0E0A67D8DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="500" windowWidth="38300" windowHeight="18920" xr2:uid="{B0C56F1A-439A-D146-B83A-D517AE3A1B6B}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="38300" windowHeight="18920" xr2:uid="{B0C56F1A-439A-D146-B83A-D517AE3A1B6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Open_Source_AI_Glossary" sheetId="1" r:id="rId1"/>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46917B2A-AA95-2846-8697-6023E82BCCDA}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3267,8 +3267,8 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>HYPERLINK("https://huggingface.co/docs/datasets/index", "Datasets Llibrary")</f>
-        <v>Datasets Llibrary</v>
+        <f>HYPERLINK("https://huggingface.co/docs/datasets/index", "Datasets Library")</f>
+        <v>Datasets Library</v>
       </c>
       <c r="B120" t="s">
         <v>25</v>

--- a/datasets/open_source_ai_glossary.xlsx
+++ b/datasets/open_source_ai_glossary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcuomo/Documents/Books/Open Source AI Book/chapters/Chapter 12 - Commit to Contribute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F179D80-A70B-C54A-915C-0E0A67D8DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D874F0-DE34-D148-A083-7B74C7B21988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="500" windowWidth="38300" windowHeight="18920" xr2:uid="{B0C56F1A-439A-D146-B83A-D517AE3A1B6B}"/>
   </bookViews>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46917B2A-AA95-2846-8697-6023E82BCCDA}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/datasets/open_source_ai_glossary.xlsx
+++ b/datasets/open_source_ai_glossary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcuomo/Documents/Books/Open Source AI Book/chapters/Chapter 12 - Commit to Contribute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D874F0-DE34-D148-A083-7B74C7B21988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D46935E-123F-AD4A-BEC8-1736D75AABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="500" windowWidth="38300" windowHeight="18920" xr2:uid="{B0C56F1A-439A-D146-B83A-D517AE3A1B6B}"/>
   </bookViews>
@@ -519,9 +519,6 @@
     <t>A Python library that detects and corrects label errors and data quality issues, supporting AI trust and integrity.</t>
   </si>
   <si>
-    <t>Cl√©ment Delangue, Julien Chaumond, Thomas Wolf</t>
-  </si>
-  <si>
     <t>A collaborative platform and open-source leader providing transformer models, datasets, and tools for building modern AI applications.</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
   </si>
   <si>
     <t>A lightweight wrapper for managing multi-GPU, mixed-precision, and distributed training across PyTorch models. Simplifies scaling code from single device to full infrastructure.</t>
+  </si>
+  <si>
+    <t>Clément Delangue, Julien Chaumond, Thomas Wolf</t>
   </si>
 </sst>
 </file>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46917B2A-AA95-2846-8697-6023E82BCCDA}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1034,7 +1034,7 @@
         <v>Hugging Face</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C3">
         <v>2016</v>
@@ -1046,7 +1046,7 @@
         <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1076,7 +1076,7 @@
         <v>BLOOM</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1088,7 +1088,7 @@
         <v>320</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>620</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>220</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>GitHub</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13">
         <v>2008</v>
@@ -1235,7 +1235,7 @@
         <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1244,7 +1244,7 @@
         <v>Hugging Face</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C14">
         <v>2016</v>
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2704,7 +2704,7 @@
         <v>GitHub</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C90">
         <v>2008</v>
@@ -2716,7 +2716,7 @@
         <v>110</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2758,7 +2758,7 @@
         <v>510</v>
       </c>
       <c r="F92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2914,7 +2914,7 @@
         <v>BLEU</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101">
         <v>2002</v>
@@ -2926,7 +2926,7 @@
         <v>520</v>
       </c>
       <c r="F101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -2935,7 +2935,7 @@
         <v>MT-Bench</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C102">
         <v>2023</v>
@@ -2947,7 +2947,7 @@
         <v>520</v>
       </c>
       <c r="F102" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -3313,7 +3313,7 @@
         <v>Flowise</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C122">
         <v>2023</v>
@@ -3325,7 +3325,7 @@
         <v>400</v>
       </c>
       <c r="F122" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3334,7 +3334,7 @@
         <v>Relevance AI</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C123">
         <v>2020</v>
@@ -3346,7 +3346,7 @@
         <v>620</v>
       </c>
       <c r="F123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3397,7 +3397,7 @@
         <v>MIT License</v>
       </c>
       <c r="B127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C127">
         <v>1988</v>
@@ -3409,7 +3409,7 @@
         <v>610</v>
       </c>
       <c r="F127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3418,7 +3418,7 @@
         <v>GNU General Public License (GPL)</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C128">
         <v>1989</v>
@@ -3430,7 +3430,7 @@
         <v>610</v>
       </c>
       <c r="F128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -3439,7 +3439,7 @@
         <v>Apache 2.0 License</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C129">
         <v>2004</v>
@@ -3451,7 +3451,7 @@
         <v>610</v>
       </c>
       <c r="F129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/open_source_ai_glossary.xlsx
+++ b/datasets/open_source_ai_glossary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcuomo/Documents/Books/Open Source AI Book/chapters/Chapter 12 - Commit to Contribute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D46935E-123F-AD4A-BEC8-1736D75AABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC3665C-B789-A94E-B82A-3B2198D39BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="500" windowWidth="38300" windowHeight="18920" xr2:uid="{B0C56F1A-439A-D146-B83A-D517AE3A1B6B}"/>
   </bookViews>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46917B2A-AA95-2846-8697-6023E82BCCDA}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>HYPERLINK("https://github.com/opencre/opencre", "OpenCRE")</f>
+        <f>HYPERLINK("https://www.opencre.org/", "OpenCRE")</f>
         <v>OpenCRE</v>
       </c>
       <c r="B104" t="s">
